--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,112 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="960" yWindow="500" windowWidth="25120" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>KEYWORD</t>
-  </si>
-  <si>
-    <t>DOMAIN</t>
-  </si>
-  <si>
-    <t>LINK</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>SRC</t>
-  </si>
-  <si>
-    <t>ALT</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>WIDTH</t>
-  </si>
-  <si>
-    <t>INTERN</t>
-  </si>
-  <si>
-    <t>EXTERN</t>
-  </si>
-  <si>
-    <t>YOUTUBE</t>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,25 +70,89 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,101 +411,1027 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="87.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="171.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="140.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col width="47.1640625" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="87.83203125" bestFit="1" customWidth="1" style="2" min="2" max="3"/>
+    <col width="94.6640625" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="171.5" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="88.1640625" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="8.1640625" bestFit="1" customWidth="1" style="2" min="7" max="9"/>
+    <col width="8.1640625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="7.1640625" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
+    <col width="140.83203125" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
+    <col width="54.33203125" bestFit="1" customWidth="1" style="2" min="13" max="13"/>
+    <col width="59.6640625" bestFit="1" customWidth="1" style="2" min="14" max="14"/>
+    <col width="7.5" bestFit="1" customWidth="1" style="2" min="15" max="15"/>
+    <col width="7.1640625" bestFit="1" customWidth="1" style="2" min="16" max="16"/>
+    <col width="7.5" bestFit="1" customWidth="1" style="2" min="17" max="17"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="2" min="18" max="18"/>
+    <col width="47" bestFit="1" customWidth="1" style="2" min="19" max="19"/>
+    <col width="4.5" bestFit="1" customWidth="1" style="2" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>KEYWORD</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DOMAIN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SRC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ALT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>HEIGHT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>WIDTH</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>INTERN</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>EXTERN</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>YOUTUBE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LIST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>6 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>cool</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>6 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>gadget</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>6 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>tip</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>6 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>tips</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>6 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>6 - 1 - 0</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>6 - 1 - 0</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>solve</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>6 - 1 - 0</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>https://com.puter.tips/</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Computer Tips [https://com.puter.tips/]</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>NO DESCRIPTION FOUND</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Computer Tips [https://com.puter.tips/]
+</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>10 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>6 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>0 - 0 - 0</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjEX8kcJdWuJ-KvOH8yUaOoUAIHcwbVcutC77VlyPcy5DcEnnGhxr0VRYPT6YQ6Z-2t3FD5sxL1gwg9TzaMBL1uBBUUcC15Bb3uC7WxqM31gI_DqcxP31h8CUm6P34uWD_eqOLFR46UYSKHuzm4UriQqTOVYxb8KJ8vqbVSIjI2Em07JGS8kJWuK1z6=w400-h300</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>NO ALT FOUND</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>NO IMAGE-TITLE FOUND</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S10" s="3" t="inlineStr">
+        <is>
+          <t>NO YOUTUBE VIDEO FOUND</t>
+        </is>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
